--- a/PBS_Ooze_Dip.xlsx
+++ b/PBS_Ooze_Dip.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/Documents/PhD Paperwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4AD8E3-7DEA-6449-92D0-8F2891B3AF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516A7B6A-1540-7345-8D67-A79A06C14299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9300" yWindow="500" windowWidth="14760" windowHeight="16220" xr2:uid="{C85E6F79-4859-B641-88D3-6F0B96B29A82}"/>
   </bookViews>
@@ -444,7 +444,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,7 +506,6 @@
         <v>24.776</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D19" si="0">B3-C3</f>
         <v>-0.71099999999999852</v>
       </c>
       <c r="E3">
@@ -530,7 +529,6 @@
         <v>25.579000000000001</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
         <v>8.9999999999999858E-2</v>
       </c>
       <c r="E4">
@@ -554,7 +552,6 @@
         <v>23.722999999999999</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
         <v>2.7319999999999993</v>
       </c>
       <c r="E5">
@@ -578,7 +575,6 @@
         <v>26.916</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
         <v>2.7420000000000009</v>
       </c>
       <c r="E6">
@@ -602,7 +598,6 @@
         <v>26.689</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
         <v>3.1670000000000016</v>
       </c>
       <c r="E7">
@@ -626,7 +621,6 @@
         <v>22.327999999999999</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
         <v>3.0570000000000022</v>
       </c>
       <c r="E8">
@@ -650,7 +644,6 @@
         <v>26.596</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
         <v>2.0459999999999994</v>
       </c>
       <c r="E9">
@@ -674,7 +667,6 @@
         <v>20.312000000000001</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
         <v>-4.1610000000000014</v>
       </c>
       <c r="E10">
@@ -698,7 +690,6 @@
         <v>24.321999999999999</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
         <v>-2.9029999999999987</v>
       </c>
       <c r="E11">
@@ -722,7 +713,6 @@
         <v>22.344999999999999</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
         <v>-0.10099999999999909</v>
       </c>
       <c r="E12">
@@ -746,7 +736,6 @@
         <v>24.439</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
         <v>-1.0730000000000004</v>
       </c>
       <c r="E13">
@@ -770,7 +759,6 @@
         <v>25.358000000000001</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
         <v>-2.6750000000000007</v>
       </c>
       <c r="E14">
@@ -794,7 +782,6 @@
         <v>24.552</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
         <v>-0.71300000000000097</v>
       </c>
       <c r="E15">
@@ -818,7 +805,6 @@
         <v>17.571999999999999</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
         <v>2.5130000000000017</v>
       </c>
       <c r="E16">
@@ -842,7 +828,6 @@
         <v>20.372</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
         <v>0.18799999999999883</v>
       </c>
       <c r="E17">
@@ -866,7 +851,6 @@
         <v>22.957999999999998</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
         <v>-0.10799999999999699</v>
       </c>
       <c r="E18">
@@ -890,7 +874,6 @@
         <v>19.036000000000001</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
         <v>1.6839999999999975</v>
       </c>
       <c r="E19">
@@ -914,7 +897,6 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D27" si="1">B20-C20</f>
         <v>0</v>
       </c>
       <c r="E20">
@@ -938,7 +920,6 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E21">
@@ -962,7 +943,6 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E22">
@@ -986,7 +966,6 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E23">
@@ -1010,7 +989,6 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E24">
@@ -1034,7 +1012,6 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E25">
@@ -1058,7 +1035,6 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E26">
@@ -1082,7 +1058,6 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E27">
@@ -1520,7 +1495,6 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <f t="shared" ref="D46:D55" si="2">B46-C46</f>
         <v>0</v>
       </c>
       <c r="E46">
@@ -1544,7 +1518,6 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E47">
@@ -1568,7 +1541,6 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E48">
@@ -1592,7 +1564,6 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E49">
@@ -1616,7 +1587,6 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E50">
@@ -1640,7 +1610,6 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E51">
@@ -1664,7 +1633,6 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E52">
@@ -1688,7 +1656,6 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E53">
@@ -1712,7 +1679,6 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E54">
@@ -1736,7 +1702,6 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E55">
